--- a/spliced/struggle/2023-03-25_18-16-21/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-16-21/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.428386807441711</v>
+        <v>3.09836453199387</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.201114416122437</v>
+        <v>-3.448286980390552</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01909314095973946</v>
+        <v>1.224327325820929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.071295976638797</v>
+        <v>5.926505327224739</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.941428482532501</v>
+        <v>-2.135328322648994</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1175957471132281</v>
+        <v>-0.6819987297058234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.011565446853637</v>
+        <v>-1.439981520175948</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.031190991401672</v>
+        <v>-1.973837949335578</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00678548216819741</v>
+        <v>-4.723978996276856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.462080836296082</v>
+        <v>-13.93973755836486</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.452985495328903</v>
+        <v>-5.416623592376709</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3243236392736438</v>
+        <v>-4.78411507606506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.303904652595517</v>
+        <v>-5.790439605712891</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.353205323219298</v>
+        <v>-5.474406182765961</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.294634371995929</v>
+        <v>-2.479388117790221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.8602131009101864</v>
+        <v>-6.174473762512195</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.483290255069734</v>
+        <v>-4.646332740783681</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.836389183998108</v>
+        <v>-6.182556152343746</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.324098110198965</v>
+        <v>-1.106817305088029</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.071885108947757</v>
+        <v>0.3479279279709004</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.799089431762685</v>
+        <v>-4.026142060756678</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.331560194492345</v>
+        <v>-0.1755727529525754</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.974580883979799</v>
+        <v>2.31334447860718</v>
       </c>
       <c r="C9" t="n">
-        <v>4.612698078155523</v>
+        <v>-5.915446519851686</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.398366570472712</v>
+        <v>1.180307447910312</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.58479398488998</v>
+        <v>0.6379154920577954</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4915273189544624</v>
+        <v>-5.021014630794521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.09836453199387</v>
+        <v>-1.093243360519415</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.448286980390552</v>
+        <v>-1.983224630355838</v>
       </c>
       <c r="C11" t="n">
-        <v>1.224327325820929</v>
+        <v>-1.879333615303035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.926505327224739</v>
+        <v>-3.451674103736873</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.135328322648994</v>
+        <v>-1.611639708280552</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6819987297058234</v>
+        <v>-0.6418006122112334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.439981520175948</v>
+        <v>-2.273676156997681</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.973837949335578</v>
+        <v>0.1646193265914786</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.723978996276856</v>
+        <v>-3.850346922874469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-13.93973755836486</v>
+        <v>-2.109282225370405</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.416623592376709</v>
+        <v>-3.67548027634622</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.78411507606506</v>
+        <v>-7.529284000396693</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-5.790439605712891</v>
+        <v>-1.644850492477401</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.474406182765961</v>
+        <v>-7.059904575347879</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.479388117790221</v>
+        <v>1.617063522338856</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.174473762512195</v>
+        <v>1.835043907165529</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.646332740783681</v>
+        <v>-2.18121553957462</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.182556152343746</v>
+        <v>-0.952013134956361</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.106817305088029</v>
+        <v>8.433930218219764</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3479279279709004</v>
+        <v>-3.52629014849663</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.026142060756678</v>
+        <v>2.835070371627813</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1755727529525754</v>
+        <v>-5.246673464775119</v>
       </c>
       <c r="B18" t="n">
-        <v>2.31334447860718</v>
+        <v>-3.962655484676361</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.915446519851686</v>
+        <v>-5.154342770576502</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.180307447910312</v>
+        <v>-7.417413711547821</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6379154920577954</v>
+        <v>-2.038821458816521</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.021014630794521</v>
+        <v>-6.523755788803086</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.093243360519415</v>
+        <v>0.6842400431633051</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.983224630355838</v>
+        <v>-3.085346877574939</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.879333615303035</v>
+        <v>-2.034696012735365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-3.451674103736873</v>
+        <v>1.740720510482789</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.611639708280552</v>
+        <v>-5.68582010269165</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.6418006122112334</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-2.273676156997681</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1646193265914786</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-3.850346922874469</v>
+        <v>-1.830426752567291</v>
       </c>
     </row>
   </sheetData>
